--- a/VerveStacks_AUS/SysSettings.xlsx
+++ b/VerveStacks_AUS/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_AUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0048DA36-B72C-4841-8ABA-E5C83E280D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03810BA-3C37-456D-BC92-5BDD4A98310A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_AUS/SysSettings.xlsx
+++ b/VerveStacks_AUS/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_AUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03810BA-3C37-456D-BC92-5BDD4A98310A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9870CC7C-C54D-4601-B5B4-6F1A113ED86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
